--- a/KokoroUpTime/Datas/default.xlsx
+++ b/KokoroUpTime/Datas/default.xlsx
@@ -7,7 +7,19 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="まとめ" sheetId="1" r:id="rId1"/>
+    <sheet name="第1回" sheetId="2" r:id="rId2"/>
+    <sheet name="第2回" sheetId="3" r:id="rId3"/>
+    <sheet name="第3回" sheetId="4" r:id="rId4"/>
+    <sheet name="第4回" sheetId="5" r:id="rId5"/>
+    <sheet name="第5回" sheetId="6" r:id="rId6"/>
+    <sheet name="第6回" sheetId="7" r:id="rId7"/>
+    <sheet name="第7回" sheetId="8" r:id="rId8"/>
+    <sheet name="第8回" sheetId="9" r:id="rId9"/>
+    <sheet name="第9回" sheetId="10" r:id="rId10"/>
+    <sheet name="第10回" sheetId="11" r:id="rId11"/>
+    <sheet name="第11回" sheetId="12" r:id="rId12"/>
+    <sheet name="第12回" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,13 +30,84 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>基本情報</t>
+  </si>
+  <si>
+    <t>プレイ名</t>
+  </si>
+  <si>
+    <t>本名</t>
+  </si>
+  <si>
+    <t>学年</t>
+  </si>
+  <si>
+    <t>アクセス日</t>
+  </si>
+  <si>
+    <t>各回の達成率</t>
+  </si>
+  <si>
+    <t>シーン数</t>
+  </si>
+  <si>
+    <t>プレイ中のシーン数</t>
+  </si>
+  <si>
+    <t>プレイ中のシーン名</t>
+  </si>
+  <si>
+    <t>達成率</t>
+  </si>
+  <si>
+    <t>第1回</t>
+  </si>
+  <si>
+    <t>第2回</t>
+  </si>
+  <si>
+    <t>第3回</t>
+  </si>
+  <si>
+    <t>第4回</t>
+  </si>
+  <si>
+    <t>第5回</t>
+  </si>
+  <si>
+    <t>第6回</t>
+  </si>
+  <si>
+    <t>第7回</t>
+  </si>
+  <si>
+    <t>第8回</t>
+  </si>
+  <si>
+    <t>第9回</t>
+  </si>
+  <si>
+    <t>第10回</t>
+  </si>
+  <si>
+    <t>第11回</t>
+  </si>
+  <si>
+    <t>第12回</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -37,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +128,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +174,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +219,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +254,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +436,382 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="5" t="e">
+        <f>C9/B9</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A7:E7"/>
+  </mergeCells>
+  <phoneticPr fontId="0"/>
+  <conditionalFormatting sqref="E9:E20">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E7BD8DED-5300-4A26-92CE-2A83E79B8539}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E7BD8DED-5300-4A26-92CE-2A83E79B8539}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E9:E20</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KokoroUpTime/Datas/default.xlsx
+++ b/KokoroUpTime/Datas/default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="まとめ" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>基本情報</t>
   </si>
@@ -97,6 +97,109 @@
   </si>
   <si>
     <t>第12回</t>
+  </si>
+  <si>
+    <t>チャレンジタイムパート②</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>きもちの種類</t>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>きもちのおおきさ</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>かんたんにできるか　</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>チャレンジタイムパート①</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>楽しいことリスト</t>
+    <rPh sb="0" eb="1">
+      <t>タノ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>公園でおひるねする</t>
+    <rPh sb="0" eb="2">
+      <t>コウエン</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>ゆったり</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>おいしいものを食べる</t>
+    <rPh sb="7" eb="8">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>うれしい</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>全部のテストで100点を取る</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>休み時間に友達とおしゃべりする</t>
+    <rPh sb="0" eb="1">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トモダチ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>うれしい</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>楽しい</t>
+    <rPh sb="0" eb="1">
+      <t>タノ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>自分のいいきもちになる出来事</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>デキゴト</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
   </si>
 </sst>
 </file>
@@ -147,15 +250,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -438,7 +547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -451,10 +560,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -481,13 +590,13 @@
       <c r="B5" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
@@ -511,7 +620,7 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="5" t="e">
+      <c r="E9" s="4" t="e">
         <f>C9/B9</f>
         <v>#DIV/0!</v>
       </c>
@@ -726,6 +835,105 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="53" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="6">
+        <v>20</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -737,7 +945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -747,10 +955,11 @@
   <sheetData/>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -760,11 +969,10 @@
   <sheetData/>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -777,7 +985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -790,7 +998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -801,17 +1009,4 @@
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="0"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/KokoroUpTime/Datas/default.xlsx
+++ b/KokoroUpTime/Datas/default.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>基本情報</t>
   </si>
@@ -198,6 +198,17 @@
     </rPh>
     <rPh sb="11" eb="14">
       <t>デキゴト</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>グループアクティビティ</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>自分の「ちょっぴりうきうき」なできごと</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
     </rPh>
     <phoneticPr fontId="0"/>
   </si>
@@ -250,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -259,11 +270,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,10 +575,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -590,13 +605,13 @@
       <c r="B5" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
@@ -835,10 +850,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+  <dimension ref="A2:L13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -851,81 +866,164 @@
     <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="H3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="9"/>
+      <c r="C4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="5">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="9"/>
       <c r="C5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="6">
-        <v>20</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="9"/>
       <c r="C6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="9"/>
       <c r="C7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="H4:K13"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H3:K3"/>
+  </mergeCells>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/KokoroUpTime/Datas/default.xlsx
+++ b/KokoroUpTime/Datas/default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="まとめ" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>基本情報</t>
   </si>
@@ -192,23 +192,94 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>自分のいいきもちになる出来事</t>
+    <t>グループアクティビティ</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>いいきもちになるできごと</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>「ちょっぴりうきうき」なできごと</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>自分がなったことのあるきもち</t>
     <rPh sb="0" eb="2">
       <t>ジブン</t>
     </rPh>
-    <rPh sb="11" eb="14">
-      <t>デキゴト</t>
-    </rPh>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>グループアクティビティ</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>自分の「ちょっぴりうきうき」なできごと</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>いやなきもち</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>いいきもち</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>赤丸くん</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>マル</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>きもちの種類</t>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>きもちの大きさ</t>
+    <rPh sb="4" eb="5">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>青助くん</t>
     <rPh sb="0" eb="2">
-      <t>ジブン</t>
+      <t>アオスケ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>キミちゃん</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>どんなとき？</t>
+  </si>
+  <si>
+    <t>どんなとき？</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>放課後に野球をするとき</t>
+    <rPh sb="0" eb="3">
+      <t>ホウカゴ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヤキュウ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>授業中に先生に指名されたとき</t>
+    <rPh sb="0" eb="3">
+      <t>ジュギョウチュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シメイ</t>
     </rPh>
     <phoneticPr fontId="0"/>
   </si>
@@ -234,7 +305,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -257,11 +328,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -279,6 +376,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,10 +696,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -605,13 +726,13 @@
       <c r="B5" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
@@ -837,12 +958,182 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="E2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="E4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="E6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="E7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="E8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="E10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="1"/>
+      <c r="I10"/>
+      <c r="K10" s="1"/>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="E11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11"/>
+      <c r="K11" s="1"/>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="E12" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="1"/>
+      <c r="I12"/>
+      <c r="K12" s="1"/>
+      <c r="L12"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:A20"/>
+    <mergeCell ref="B4:B20"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -852,7 +1143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H4" sqref="H4:K13"/>
     </sheetView>
   </sheetViews>
@@ -867,27 +1158,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="H2" s="6" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="H2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="5" t="s">
@@ -902,16 +1193,16 @@
       <c r="F3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="9"/>
+      <c r="A4" s="11"/>
       <c r="C4" s="7" t="s">
         <v>28</v>
       </c>
@@ -924,13 +1215,13 @@
       <c r="F4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="9"/>
+      <c r="A5" s="11"/>
       <c r="C5" s="7" t="s">
         <v>31</v>
       </c>
@@ -939,13 +1230,13 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="9"/>
+      <c r="A6" s="11"/>
       <c r="C6" s="7" t="s">
         <v>33</v>
       </c>
@@ -954,13 +1245,13 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="9"/>
+      <c r="A7" s="11"/>
       <c r="C7" s="7" t="s">
         <v>34</v>
       </c>
@@ -969,52 +1260,52 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="A8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="A9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="A10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="A11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="A12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="A13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/KokoroUpTime/Datas/default.xlsx
+++ b/KokoroUpTime/Datas/default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130"/>
   </bookViews>
   <sheets>
     <sheet name="まとめ" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
   <si>
     <t>基本情報</t>
   </si>
@@ -282,6 +282,39 @@
       <t>シメイ</t>
     </rPh>
     <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>チャレンジタイムパート①（アイテム使用前）</t>
+  </si>
+  <si>
+    <t>ほめる言葉の内容</t>
+  </si>
+  <si>
+    <t>青助くんの気持ち</t>
+  </si>
+  <si>
+    <t>種類</t>
+  </si>
+  <si>
+    <t>しんぱいする言葉の内容</t>
+  </si>
+  <si>
+    <t>大きさ</t>
+  </si>
+  <si>
+    <t>はげます言葉の内容</t>
+  </si>
+  <si>
+    <t>キミちゃんの気持ち</t>
+  </si>
+  <si>
+    <t>おれいの言葉の内容</t>
+  </si>
+  <si>
+    <t>チャレンジタイムパート②（アイテム使用後）</t>
+  </si>
+  <si>
+    <t>赤丸くんの気持ち</t>
   </si>
 </sst>
 </file>
@@ -305,7 +338,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -354,11 +387,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -378,13 +422,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -400,6 +441,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,7 +730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -692,14 +739,14 @@
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -726,13 +773,13 @@
       <c r="B5" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
@@ -756,9 +803,9 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="4" t="e">
-        <f>C9/B9</f>
-        <v>#DIV/0!</v>
+      <c r="E9" s="4" t="str">
+        <f>IF(AND(B9&lt;&gt;0, C9 &lt;&gt;""), C9/B9, "")</f>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -768,7 +815,10 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="4" t="str">
+        <f t="shared" ref="E10:E20" si="0">IF(AND(B10&lt;&gt;0, C10 &lt;&gt;""), C10/B10, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
@@ -777,7 +827,10 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
@@ -786,7 +839,10 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
@@ -795,7 +851,10 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
@@ -804,7 +863,10 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
@@ -813,7 +875,10 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
@@ -822,7 +887,10 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
@@ -831,7 +899,10 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
@@ -840,7 +911,10 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
@@ -849,7 +923,10 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
@@ -858,7 +935,10 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -960,9 +1040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -980,44 +1058,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="E2" s="16" t="s">
+      <c r="B2" s="14"/>
+      <c r="E2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="17"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="E4" s="13" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="E4" s="10" t="s">
         <v>51</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
       <c r="E6" s="12" t="s">
         <v>43</v>
       </c>
@@ -1025,34 +1103,34 @@
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="E7" s="13" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="E7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="E8" s="13" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="E8" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
       <c r="E10" s="12" t="s">
         <v>46</v>
       </c>
@@ -1064,15 +1142,15 @@
       <c r="L10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="E11" s="13" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="E11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="10" t="s">
         <v>45</v>
       </c>
       <c r="H11" s="1"/>
@@ -1081,9 +1159,9 @@
       <c r="L11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="E12" s="13" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="E12" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F12" s="3"/>
@@ -1094,36 +1172,36 @@
       <c r="L12"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1144,7 +1222,7 @@
   <dimension ref="A2:L13"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:K13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1162,18 +1240,18 @@
         <v>26</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="H2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
@@ -1193,16 +1271,16 @@
       <c r="F3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="11"/>
+      <c r="A4" s="17"/>
       <c r="C4" s="7" t="s">
         <v>28</v>
       </c>
@@ -1215,13 +1293,13 @@
       <c r="F4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="11"/>
+      <c r="A5" s="17"/>
       <c r="C5" s="7" t="s">
         <v>31</v>
       </c>
@@ -1230,13 +1308,13 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="11"/>
+      <c r="A6" s="17"/>
       <c r="C6" s="7" t="s">
         <v>33</v>
       </c>
@@ -1245,13 +1323,13 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="11"/>
+      <c r="A7" s="17"/>
       <c r="C7" s="7" t="s">
         <v>34</v>
       </c>
@@ -1260,52 +1338,52 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="A8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
+      <c r="A9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
+      <c r="A10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
+      <c r="A11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
+      <c r="A12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
+      <c r="A13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1323,12 +1401,210 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B8:D8"/>
+  </mergeCells>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KokoroUpTime/Datas/default.xlsx
+++ b/KokoroUpTime/Datas/default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="まとめ" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="179">
   <si>
     <t>基本情報</t>
   </si>
@@ -129,13 +129,6 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>公園でおひるねする</t>
-    <rPh sb="0" eb="2">
-      <t>コウエン</t>
-    </rPh>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
     <t>ゆったり</t>
     <phoneticPr fontId="0"/>
   </si>
@@ -315,18 +308,1063 @@
   </si>
   <si>
     <t>赤丸くんの気持ち</t>
+  </si>
+  <si>
+    <t>場面</t>
+    <rPh sb="0" eb="2">
+      <t>バメン</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>きもちの大きさ</t>
+    <rPh sb="4" eb="5">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>きもちの種類</t>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>日直の仕事をまかされたとき</t>
+    <rPh sb="0" eb="2">
+      <t>ニッチョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シゴト</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>赤丸くんにたのまれた場面</t>
+    <rPh sb="0" eb="2">
+      <t>アカマル</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バメン</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>チャレンジタイム！　キミちゃんのきもちを考えてみよう</t>
+    <rPh sb="20" eb="21">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>チャレンジタイム！パート①　キミちゃんが不安になっている時のからだの変化</t>
+    <rPh sb="20" eb="22">
+      <t>フアン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>部位</t>
+    <rPh sb="0" eb="2">
+      <t>ブイ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>変化</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>かおは？</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>手は？</t>
+    <rPh sb="0" eb="1">
+      <t>テ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>あたまは？</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>かたは？</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>おなかは？</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>あしは？</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>その他には？</t>
+    <rPh sb="2" eb="3">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>チャレンジタイムパート②</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>からだの変化</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>音楽の時間、【name】はリコーダーの発表をしました。【name】の発表中、友達の一人があなたを見ながら、クスクスと笑っているのが見えました。</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>グループアクティビティ　のリラックス方法をたくさん書いてみよう！</t>
+  </si>
+  <si>
+    <t>番号</t>
+    <rPh sb="0" eb="2">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>リラックス方法</t>
+    <rPh sb="5" eb="7">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>チャレンジタイム！　自分がしてもらったことのあること</t>
+    <rPh sb="10" eb="12">
+      <t>ジブン</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>グループアクティビティ　ともだちの「すてきなせいかく」を書いてみよう！</t>
+    <rPh sb="28" eb="29">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>ともだちのなまえ</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>ともだちのすてきなせいかく</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>キミちゃんの考え</t>
+    <rPh sb="6" eb="7">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>調べ学習の発表をするとき。</t>
+    <rPh sb="0" eb="1">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハッピョウ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>友だちを遊びにさそうとき。</t>
+    <rPh sb="0" eb="1">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アソ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>しっぱいしたら、どうしよう。みんなに笑われちゃうかも・・・</t>
+    <rPh sb="18" eb="19">
+      <t>ワラ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>断られたら、どうしよう。わたしとは遊びたくないかも・・・</t>
+    <rPh sb="0" eb="1">
+      <t>コトワ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アソ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>グループアクティビティ</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>場面</t>
+    <rPh sb="0" eb="2">
+      <t>バメン</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>休み時間に、友だちをサッカーにさそう場面</t>
+    <rPh sb="0" eb="1">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バメン</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>青助くんの考え</t>
+    <rPh sb="0" eb="2">
+      <t>アオスケ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>赤丸くんの考え</t>
+    <rPh sb="0" eb="2">
+      <t>アカマル</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>チャレンジタイム！　キミちゃんの考えときもちは・・・</t>
+    <rPh sb="16" eb="17">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>選択した場面</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バメン</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>あなたの考え</t>
+    <rPh sb="4" eb="5">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>あなたのきもち</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>チャレンジタイム！　自分の考えときもち</t>
+    <rPh sb="10" eb="12">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>グループアクティビティ　友だちの考えときもち</t>
+    <rPh sb="12" eb="13">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>友だちの考え</t>
+    <rPh sb="0" eb="1">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>友だちのきもち</t>
+    <rPh sb="0" eb="1">
+      <t>トモ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>考え</t>
+    <rPh sb="0" eb="1">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>きもちの種類</t>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>きもちの大きさ</t>
+    <rPh sb="4" eb="5">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>チャレンジタイム！　３人の考えときもち</t>
+    <rPh sb="11" eb="12">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>人物</t>
+    <rPh sb="0" eb="2">
+      <t>ジンブツ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>キミちゃん</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>青助くん</t>
+    <rPh sb="0" eb="2">
+      <t>アオスケ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>赤丸くん</t>
+    <rPh sb="0" eb="2">
+      <t>アカマル</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>しっぱいしたらどうしよう・・・</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>どうせ僕なんか何をやってもダメなんだ・・・</t>
+    <rPh sb="3" eb="4">
+      <t>ボク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>ばかにしやがって！なめんじゃねえ！</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>変わる前のきもちの種類</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>変わる前のきもちの大きさ</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>変わった後のきもちの種類</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>変わった後のきもちの大きさ</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>グループアクティビティ　青助くんのおじゃま虫</t>
+    <rPh sb="12" eb="14">
+      <t>アオスケ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ムシ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>たしかめてみよう！　友だちはどのように考えるか聞いてみよう！</t>
+    <rPh sb="10" eb="11">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>いいきもちになる考えは？　「お助け虫」に進化させてみよう！</t>
+    <rPh sb="8" eb="9">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タス</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シンカ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>じぶんいがいの人なら？　相手をはげます言葉を自分にもかけてみよう！</t>
+    <rPh sb="7" eb="8">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コトバ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジブン</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>あなたの考え</t>
+    <rPh sb="4" eb="5">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>使い方</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>チャレンジタイム！　苦手なことちょうせんしてみたいこと</t>
+    <rPh sb="10" eb="12">
+      <t>ニガテ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>学校でのこと</t>
+    <rPh sb="0" eb="2">
+      <t>ガッコウ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>友だちとのこと</t>
+    <rPh sb="0" eb="1">
+      <t>トモ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>場所</t>
+    <rPh sb="0" eb="2">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>動物、虫、自然</t>
+    <rPh sb="0" eb="2">
+      <t>ドウブツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シゼン</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>大きな音</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>家でのこと</t>
+    <rPh sb="0" eb="1">
+      <t>イエ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>大人とのこと</t>
+    <rPh sb="0" eb="2">
+      <t>オトナ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>発表</t>
+    <rPh sb="0" eb="2">
+      <t>ハッピョウ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>グループアクティビティ　青助くんのきもち</t>
+    <rPh sb="12" eb="14">
+      <t>アオスケ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>次の日、また、その友だちに青助くんから話しかけに行った。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スケ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>次の次の日、その友だちとはちがうほかの友だちに自分から話しかけてみた。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>その１０分後、いっしょに話していると、同じテレビ番組が好きだとわかった。</t>
+    <rPh sb="4" eb="6">
+      <t>フンゴ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バングミ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>チャレンジタイム！　あなたのちょうせんしてみたいこと（苦手なこと）</t>
+    <rPh sb="27" eb="29">
+      <t>ニガテ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>学校の休み時間、ふだんしゃべらない友だちに自分から話しかけてみた。</t>
+    <rPh sb="0" eb="2">
+      <t>ガッコウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>チャレンジタイム！　どうしてきもちの大きさがちがうのか</t>
+    <rPh sb="18" eb="19">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>グループアクティビティ　</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>青助くんのできる小さなチャレンジ</t>
+    <rPh sb="0" eb="2">
+      <t>アオスケ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チイ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>グループアクティビティ</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>きもちの種類</t>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>きもちの大きさ</t>
+    <rPh sb="4" eb="5">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>きんちょう</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>ほかのクラスの話したことのない人に自分から話をする。</t>
+    <rPh sb="7" eb="8">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ハナシ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>青助くんのできる小さなチャレンジ</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>スケ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チイ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>チャレンジタイム！パート①</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>選んだ発明品</t>
+    <rPh sb="0" eb="1">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ハツメイヒン</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>あなたの考え</t>
+    <rPh sb="4" eb="5">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>チャレンジタイム！　パート②</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>選んだ目標</t>
+    <rPh sb="0" eb="1">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>問題はかいけつするか</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>自分はできるか</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>自分のきもち</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>相手のきもち</t>
+    <rPh sb="0" eb="2">
+      <t>アイテ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>目標のための解決方法</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>カイケツホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>その友だちには、もうちかづかない</t>
+    <rPh sb="2" eb="3">
+      <t>トモ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>先生に言ってその友だちをおこってもらう</t>
+    <rPh sb="0" eb="2">
+      <t>センセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トモ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>もう一度、きちんとあやまってみる</t>
+    <rPh sb="2" eb="4">
+      <t>イチド</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>イライラするからほかの友だちにいじわるする</t>
+    <rPh sb="11" eb="12">
+      <t>トモ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>赤丸くんの問題をかいけつする方法</t>
+    <rPh sb="0" eb="2">
+      <t>アカマル</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>✕</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>✕</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>グループアクティビティ　青助くんの問題についてみんなで考えてみよう</t>
+    <rPh sb="12" eb="13">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スケ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>青助くんの問題をかいけつする方法</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>スケ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>一番かいけつできそうな方法</t>
+    <rPh sb="0" eb="2">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>発明品の使い方</t>
+    <rPh sb="0" eb="3">
+      <t>ハツメイヒン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>選んだ場面</t>
+    <rPh sb="0" eb="1">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バメン</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>グループアクティビティ　各場面で使える発明品の組み合わせ</t>
+    <rPh sb="12" eb="15">
+      <t>カクバメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ハツメイヒン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>（例）公園でおひるねする</t>
+    <rPh sb="1" eb="2">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウエン</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>授業中、わからない問題がありました。どうしたらよいか考えていたら、先生がにみんなの前で黒板にその問題の答えを書くように言いました。</t>
+    <rPh sb="0" eb="3">
+      <t>ジュギョウチュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>センセイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>コクバン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -338,7 +1376,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -398,11 +1436,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -430,6 +1488,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -447,6 +1537,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,8 +1826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -743,10 +1839,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -773,13 +1869,13 @@
       <c r="B5" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
@@ -986,12 +2082,206 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="10" max="10" width="72" customWidth="1"/>
+    <col min="19" max="19" width="73.375" customWidth="1"/>
+    <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A2" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="28"/>
+      <c r="J2" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="23"/>
+      <c r="S2" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A3" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="28"/>
+      <c r="J3" s="33"/>
+      <c r="S3" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="34"/>
+      <c r="S4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="34"/>
+      <c r="S5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="34"/>
+      <c r="S6" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="J7" s="34"/>
+      <c r="S7" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="J8" s="34"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="J9" s="34"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="J10" s="34"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="J11" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="J3:J11"/>
+  </mergeCells>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -999,12 +2289,105 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="56.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="25"/>
+      <c r="C3" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="E4" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="25"/>
+      <c r="C8" s="25"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="25"/>
+      <c r="C9" s="25"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="25"/>
+      <c r="C10" s="25"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="25"/>
+      <c r="C11" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="C4:C11"/>
+    <mergeCell ref="E2:G2"/>
+  </mergeCells>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1012,12 +2395,198 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:R9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.875" customWidth="1"/>
+    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="44.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A2" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="D2" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="28"/>
+      <c r="M2" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="28"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A3" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="E5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="E6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="G7" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="M2:R2"/>
+  </mergeCells>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1025,12 +2594,54 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="32.375" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="52.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1040,7 +2651,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1058,100 +2671,100 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="E2" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="16"/>
+      <c r="A2" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="E2" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="E4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="E6" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="E7" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="E4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="E6" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="E7" s="10" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="E8" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="E8" s="10" t="s">
-        <v>50</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="E10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="E10" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="1"/>
       <c r="I10"/>
       <c r="K10" s="1"/>
       <c r="L10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
       <c r="E11" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11"/>
@@ -1159,10 +2772,10 @@
       <c r="L11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
       <c r="E12" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1172,44 +2785,42 @@
       <c r="L12"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:A20"/>
-    <mergeCell ref="B4:B20"/>
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <phoneticPr fontId="0"/>
@@ -1222,7 +2833,7 @@
   <dimension ref="A2:L13"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1240,23 +2851,23 @@
         <v>26</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="H2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="H2" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="5" t="s">
@@ -1271,124 +2882,123 @@
       <c r="F3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="H3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="17"/>
+      <c r="A4" s="31"/>
       <c r="C4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="E4" s="5">
         <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="31"/>
+      <c r="C5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="17"/>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="17"/>
+      <c r="A6" s="31"/>
       <c r="C6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="17"/>
+      <c r="A7" s="31"/>
       <c r="C7" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
+      <c r="A8" s="31"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
+      <c r="A9" s="31"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
+      <c r="A10" s="31"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
+      <c r="A11" s="31"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
+      <c r="A12" s="31"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="A13" s="31"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A4:A13"/>
-    <mergeCell ref="H4:K13"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="H3:K3"/>
@@ -1403,7 +3013,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1421,69 +3033,68 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="3" t="s">
-        <v>56</v>
+      <c r="F3" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>57</v>
+      <c r="C4" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="3" t="s">
-        <v>58</v>
+      <c r="F4" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>55</v>
+      <c r="B5" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="3" t="s">
-        <v>60</v>
+      <c r="F5" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>57</v>
+      <c r="C6" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="1"/>
@@ -1501,22 +3112,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="14"/>
+      <c r="B8" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="1"/>
@@ -1526,8 +3137,8 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>57</v>
+      <c r="C10" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="1"/>
@@ -1536,11 +3147,11 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>55</v>
+      <c r="B11" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="1"/>
@@ -1550,8 +3161,8 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
-        <v>57</v>
+      <c r="C12" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="1"/>
@@ -1560,11 +3171,11 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>55</v>
+      <c r="B13" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="1"/>
@@ -1574,8 +3185,8 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>57</v>
+      <c r="C14" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="1"/>
@@ -1612,12 +3223,55 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1626,25 +3280,207 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65" customWidth="1"/>
+    <col min="4" max="4" width="142.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="54.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="I2" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="28"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="D4" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="D5" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D12" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="54.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="4" max="4" width="50.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="25"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="3"/>
+      <c r="C3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1652,12 +3488,142 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="60.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A2" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="F2" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="J2" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="O2:R2"/>
+  </mergeCells>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1665,12 +3631,132 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="69.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="H2" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="28"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="H2:K2"/>
+  </mergeCells>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KokoroUpTime/Datas/default.xlsx
+++ b/KokoroUpTime/Datas/default.xlsx
@@ -2084,13 +2084,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
+    <col min="8" max="8" width="15.375" customWidth="1"/>
     <col min="10" max="10" width="72" customWidth="1"/>
     <col min="19" max="19" width="73.375" customWidth="1"/>
     <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>

--- a/KokoroUpTime/Datas/default.xlsx
+++ b/KokoroUpTime/Datas/default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="まとめ" sheetId="1" r:id="rId1"/>
@@ -2084,7 +2084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
@@ -3497,8 +3497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3508,7 +3508,8 @@
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="60.875" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="15.125" bestFit="1" customWidth="1"/>

--- a/KokoroUpTime/Datas/default.xlsx
+++ b/KokoroUpTime/Datas/default.xlsx
@@ -1460,7 +1460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -1520,6 +1520,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1532,9 +1538,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1543,6 +1546,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1839,10 +1845,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -1869,13 +1875,13 @@
       <c r="B5" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
@@ -2110,16 +2116,16 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="30"/>
       <c r="J2" s="14" t="s">
         <v>141</v>
       </c>
@@ -2130,24 +2136,24 @@
       <c r="O2" s="22"/>
       <c r="P2" s="22"/>
       <c r="Q2" s="23"/>
-      <c r="S2" s="25" t="s">
+      <c r="S2" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A3" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="28"/>
-      <c r="J3" s="33"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="30"/>
+      <c r="J3" s="34"/>
       <c r="S3" s="13" t="s">
         <v>94</v>
       </c>
@@ -2169,7 +2175,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="J4" s="34"/>
+      <c r="J4" s="35"/>
       <c r="S4" s="3" t="s">
         <v>142</v>
       </c>
@@ -2187,7 +2193,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="J5" s="34"/>
+      <c r="J5" s="35"/>
       <c r="S5" s="3" t="s">
         <v>140</v>
       </c>
@@ -2205,7 +2211,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="J6" s="34"/>
+      <c r="J6" s="35"/>
       <c r="S6" s="3" t="s">
         <v>138</v>
       </c>
@@ -2223,7 +2229,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="J7" s="34"/>
+      <c r="J7" s="35"/>
       <c r="S7" s="3" t="s">
         <v>139</v>
       </c>
@@ -2241,7 +2247,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="J8" s="34"/>
+      <c r="J8" s="35"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
@@ -2254,7 +2260,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="J9" s="34"/>
+      <c r="J9" s="35"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
@@ -2267,7 +2273,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="J10" s="34"/>
+      <c r="J10" s="35"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
@@ -2280,7 +2286,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="J11" s="34"/>
+      <c r="J11" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2318,14 +2324,14 @@
       <c r="C2" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="25"/>
+      <c r="A3" s="27"/>
       <c r="C3" s="13" t="s">
         <v>145</v>
       </c>
@@ -2340,8 +2346,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="A4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="E4" s="3" t="s">
         <v>150</v>
       </c>
@@ -2353,41 +2359,41 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="25"/>
-      <c r="C5" s="25"/>
+      <c r="A5" s="27"/>
+      <c r="C5" s="27"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="A6" s="27"/>
+      <c r="C6" s="27"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="25"/>
-      <c r="C7" s="25"/>
+      <c r="A7" s="27"/>
+      <c r="C7" s="27"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="27"/>
+      <c r="C8" s="27"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="27"/>
+      <c r="C9" s="27"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="27"/>
+      <c r="C10" s="27"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="25"/>
-      <c r="C11" s="25"/>
+      <c r="A11" s="27"/>
+      <c r="C11" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2427,28 +2433,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="D2" s="27" t="s">
+      <c r="B2" s="27"/>
+      <c r="D2" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="28"/>
-      <c r="M2" s="27" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="30"/>
+      <c r="M2" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="28"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="30"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="13" t="s">
@@ -2615,11 +2621,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="13" t="s">
@@ -2659,7 +2665,7 @@
   <dimension ref="A2:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2678,14 +2684,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="E2" s="29" t="s">
+      <c r="B2" s="30"/>
+      <c r="E2" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="30"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
@@ -2716,11 +2722,11 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="15"/>
@@ -2751,11 +2757,11 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="1"/>
       <c r="I10"/>
       <c r="K10" s="1"/>
@@ -2837,10 +2843,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L13"/>
+  <dimension ref="A2:L18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2851,6 +2857,7 @@
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
@@ -2858,18 +2865,15 @@
         <v>26</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="H2" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
@@ -2889,16 +2893,13 @@
       <c r="F3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="31"/>
+      <c r="A4" s="16"/>
       <c r="C4" s="7" t="s">
         <v>177</v>
       </c>
@@ -2911,13 +2912,12 @@
       <c r="F4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="31"/>
+      <c r="A5" s="16"/>
       <c r="C5" s="7" t="s">
         <v>30</v>
       </c>
@@ -2926,13 +2926,13 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="31"/>
+      <c r="A6" s="16"/>
       <c r="C6" s="7" t="s">
         <v>32</v>
       </c>
@@ -2941,13 +2941,13 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="31"/>
+      <c r="A7" s="16"/>
       <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
@@ -2956,59 +2956,76 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="31"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
+      <c r="A8" s="16"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="31"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
+      <c r="A9" s="16"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="31"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
+      <c r="A10" s="16"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="31"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
+      <c r="A11" s="16"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="31"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
+      <c r="A12" s="16"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="31"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
+      <c r="A13" s="16"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+    </row>
+    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="277.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A4:A13"/>
+  <mergeCells count="1">
     <mergeCell ref="C2:F2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="H3:K3"/>
   </mergeCells>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3043,11 +3060,11 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="1"/>
       <c r="F2" s="19" t="s">
         <v>52</v>
@@ -3119,11 +3136,11 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -3244,11 +3261,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
@@ -3289,35 +3306,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65" customWidth="1"/>
-    <col min="4" max="4" width="142.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="142.125" customWidth="1"/>
     <col min="5" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="54.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="8"/>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="I2" s="27" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="I2" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="28"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
@@ -3431,7 +3448,7 @@
   <dimension ref="A2:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3442,13 +3459,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="25"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
@@ -3495,21 +3512,22 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R5"/>
+  <dimension ref="A2:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.375" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" customWidth="1"/>
-    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49" customWidth="1"/>
+    <col min="8" max="8" width="41.625" customWidth="1"/>
+    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="60.875" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="15.125" bestFit="1" customWidth="1"/>
@@ -3517,120 +3535,128 @@
     <col min="17" max="18" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="F2" s="25" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="F2" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="J2" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
       <c r="N2" t="s">
         <v>103</v>
       </c>
-      <c r="O2" s="25" t="s">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="F4" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="F6" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J3" s="13" t="s">
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="F7" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="G7" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="C8" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="D8" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F6:I6"/>
   </mergeCells>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3659,20 +3685,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="H2" s="27" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="H2" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="28"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="13" t="s">

--- a/KokoroUpTime/Datas/default.xlsx
+++ b/KokoroUpTime/Datas/default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="まとめ" sheetId="1" r:id="rId1"/>
@@ -1376,7 +1376,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1447,20 +1447,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -1491,9 +1482,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
@@ -1510,15 +1498,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1541,14 +1535,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1845,10 +1845,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -1875,13 +1875,13 @@
       <c r="B5" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
@@ -2088,15 +2088,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="3" width="14.375" customWidth="1"/>
     <col min="4" max="4" width="14.875" customWidth="1"/>
@@ -2105,18 +2105,21 @@
     <col min="7" max="7" width="15.25" customWidth="1"/>
     <col min="8" max="8" width="15.375" customWidth="1"/>
     <col min="10" max="10" width="72" customWidth="1"/>
+    <col min="12" max="12" width="75.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="73.375" customWidth="1"/>
     <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A2" s="30" t="s">
         <v>128</v>
       </c>
       <c r="B2" s="33"/>
@@ -2125,175 +2128,171 @@
       <c r="E2" s="33"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
-      <c r="H2" s="30"/>
-      <c r="J2" s="14" t="s">
+      <c r="H2" s="31"/>
+      <c r="J2" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="23"/>
-      <c r="S2" s="27" t="s">
+      <c r="K2" s="8"/>
+      <c r="L2" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A3" s="21" t="s">
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
-      <c r="H3" s="30"/>
-      <c r="J3" s="34"/>
-      <c r="S3" s="13" t="s">
+      <c r="H3" s="31"/>
+      <c r="J3" s="35"/>
+      <c r="L3" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="M3" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="N3" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="J4" s="35"/>
-      <c r="S4" s="3" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="J4" s="36"/>
+      <c r="L4" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="J5" s="35"/>
-      <c r="S5" s="3" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="J5" s="36"/>
+      <c r="L5" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="J6" s="35"/>
-      <c r="S6" s="3" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="J6" s="36"/>
+      <c r="L6" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="J7" s="35"/>
-      <c r="S7" s="3" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="J7" s="36"/>
+      <c r="L7" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="J8" s="35"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="J8" s="36"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="J9" s="35"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="J9" s="36"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="J10" s="35"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="J10" s="36"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="J11" s="35"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="J11" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="J3:J11"/>
+    <mergeCell ref="L2:N2"/>
   </mergeCells>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2304,8 +2303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2318,10 +2317,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="24" t="s">
         <v>144</v>
       </c>
       <c r="E2" s="27" t="s">
@@ -2331,74 +2330,72 @@
       <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="27"/>
-      <c r="C3" s="13" t="s">
+      <c r="A3" s="37"/>
+      <c r="C3" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="24" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="E4" s="3" t="s">
+      <c r="A4" s="8"/>
+      <c r="C4" s="24"/>
+      <c r="E4" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="24">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="A5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="A6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="A7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="27"/>
-      <c r="C8" s="27"/>
+      <c r="A8" s="8"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="8"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="A10" s="8"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="27"/>
-      <c r="C11" s="27"/>
+      <c r="A11" s="8"/>
+      <c r="C11" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="C4:C11"/>
+  <mergeCells count="1">
     <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="0"/>
@@ -2410,8 +2407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:K2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2433,28 +2430,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="D2" s="29" t="s">
+      <c r="B2" s="26"/>
+      <c r="D2" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="30"/>
-      <c r="M2" s="29" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="29"/>
+      <c r="M2" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="30"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="29"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="13" t="s">
@@ -2469,7 +2466,7 @@
       <c r="E3" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="F3" s="20"/>
+      <c r="F3" s="19"/>
       <c r="G3" s="13" t="s">
         <v>166</v>
       </c>
@@ -2507,7 +2504,7 @@
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="D4" s="24"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="3"/>
       <c r="G4" s="3" t="s">
         <v>165</v>
@@ -2610,7 +2607,7 @@
   <dimension ref="A2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2621,11 +2618,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="13" t="s">
@@ -2684,14 +2681,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="E2" s="31" t="s">
+      <c r="B2" s="29"/>
+      <c r="E2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="32"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
@@ -2708,29 +2705,29 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
       <c r="E4" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="E6" s="28" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="E6" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
       <c r="E7" s="10" t="s">
         <v>48</v>
       </c>
@@ -2742,8 +2739,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
       <c r="E8" s="10" t="s">
         <v>49</v>
       </c>
@@ -2751,25 +2748,25 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="E10" s="28" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="E10" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
       <c r="H10" s="1"/>
       <c r="I10"/>
       <c r="K10" s="1"/>
       <c r="L10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
       <c r="E11" s="10" t="s">
         <v>47</v>
       </c>
@@ -2785,8 +2782,8 @@
       <c r="L11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
       <c r="E12" s="10" t="s">
         <v>49</v>
       </c>
@@ -2798,36 +2795,36 @@
       <c r="L12"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2865,12 +2862,12 @@
         <v>26</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -2899,7 +2896,7 @@
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="16"/>
+      <c r="A4" s="15"/>
       <c r="C4" s="7" t="s">
         <v>177</v>
       </c>
@@ -2912,12 +2909,12 @@
       <c r="F4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="16"/>
+      <c r="A5" s="15"/>
       <c r="C5" s="7" t="s">
         <v>30</v>
       </c>
@@ -2926,13 +2923,13 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="16"/>
+      <c r="A6" s="15"/>
       <c r="C6" s="7" t="s">
         <v>32</v>
       </c>
@@ -2941,13 +2938,13 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="16"/>
+      <c r="A7" s="15"/>
       <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
@@ -2956,72 +2953,72 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="16"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
+      <c r="A8" s="15"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="16"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
+      <c r="A9" s="15"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="16"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
+      <c r="A10" s="15"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="16"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
+      <c r="A11" s="15"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="16"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
+      <c r="A12" s="15"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="16"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
+      <c r="A13" s="15"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
+      <c r="A14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="21" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="277.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="16"/>
+      <c r="A18" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3060,28 +3057,28 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="30"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>52</v>
       </c>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>55</v>
       </c>
       <c r="G3" s="3"/>
@@ -3089,27 +3086,27 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>57</v>
       </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>54</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>59</v>
       </c>
       <c r="G5" s="3"/>
@@ -3117,7 +3114,7 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D6" s="3"/>
@@ -3136,21 +3133,21 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="30"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>54</v>
       </c>
       <c r="D9" s="3"/>
@@ -3161,7 +3158,7 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="3"/>
@@ -3171,10 +3168,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>54</v>
       </c>
       <c r="D11" s="3"/>
@@ -3185,7 +3182,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D12" s="3"/>
@@ -3195,10 +3192,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>54</v>
       </c>
       <c r="D13" s="3"/>
@@ -3209,7 +3206,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D14" s="3"/>
@@ -3261,11 +3258,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
@@ -3320,21 +3317,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="8"/>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="I2" s="29" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="I2" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="30"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
@@ -3367,7 +3364,7 @@
         <v>71</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>178</v>
       </c>
       <c r="E4" s="3"/>
@@ -3381,7 +3378,7 @@
         <v>73</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>80</v>
       </c>
       <c r="E5" s="3"/>
@@ -3429,7 +3426,7 @@
       <c r="B10" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="D12" s="17"/>
+      <c r="D12" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3459,13 +3456,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="27"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
@@ -3514,7 +3511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -3536,120 +3533,120 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="F2" s="28" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="F2" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
       <c r="N2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="22" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="F4" s="26" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="F4" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="F7" s="26" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="F7" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3667,8 +3664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3685,20 +3682,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="H2" s="29" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="H2" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="30"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="13" t="s">

--- a/KokoroUpTime/Datas/default.xlsx
+++ b/KokoroUpTime/Datas/default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="まとめ" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="176">
   <si>
     <t>基本情報</t>
   </si>
@@ -118,10 +118,6 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>チャレンジタイムパート①</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
     <t>楽しいことリスト</t>
     <rPh sb="0" eb="1">
       <t>タノ</t>
@@ -185,18 +181,6 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>グループアクティビティ</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>いいきもちになるできごと</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>「ちょっぴりうきうき」なできごと</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
     <t>自分がなったことのあるきもち</t>
     <rPh sb="0" eb="2">
       <t>ジブン</t>
@@ -358,19 +342,6 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>チャレンジタイム！パート①　キミちゃんが不安になっている時のからだの変化</t>
-    <rPh sb="20" eb="22">
-      <t>フアン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヘンカ</t>
-    </rPh>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
     <t>部位</t>
     <rPh sb="0" eb="2">
       <t>ブイ</t>
@@ -841,40 +812,6 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>学校でのこと</t>
-    <rPh sb="0" eb="2">
-      <t>ガッコウ</t>
-    </rPh>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>友だちとのこと</t>
-    <rPh sb="0" eb="1">
-      <t>トモ</t>
-    </rPh>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>場所</t>
-    <rPh sb="0" eb="2">
-      <t>バショ</t>
-    </rPh>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>動物、虫、自然</t>
-    <rPh sb="0" eb="2">
-      <t>ドウブツ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ムシ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シゼン</t>
-    </rPh>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
     <t>大きな音</t>
     <rPh sb="0" eb="1">
       <t>オオ</t>
@@ -1018,10 +955,6 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>グループアクティビティ　</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
     <t>青助くんのできる小さなチャレンジ</t>
     <rPh sb="0" eb="2">
       <t>アオスケ</t>
@@ -1251,16 +1184,6 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>一番かいけつできそうな方法</t>
-    <rPh sb="0" eb="2">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
     <t>発明品の使い方</t>
     <rPh sb="0" eb="3">
       <t>ハツメイヒン</t>
@@ -1344,6 +1267,56 @@
     <rPh sb="59" eb="60">
       <t>イ</t>
     </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>グループアクティビティ　①</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>チャレンジタイムパート① 
+いい気持ちになるできごと</t>
+    <rPh sb="16" eb="18">
+      <t>キモ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>グループアクティビティ
+「ちょっぴりうきうき」なできごと</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>あいう</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>チャレンジタイム！パート①　
+キミちゃんが不安になっている時のからだの変化</t>
+    <rPh sb="21" eb="23">
+      <t>フアン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>やる気満々</t>
+    <rPh sb="2" eb="5">
+      <t>キマンマン</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>あいうえおかきくけこさしすせそたちつてとなにぬねのはひふへほあいうえおかきくけこさしすせそたちつてとなにぬねのはひふへほあいうえおかきくけこさしすせそたちつてとなにぬねのはひふへほ</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>あいうえおかきくけこさしすせそたちつてとなにぬねのはひふへほあいうえおかきくけこさしすせそたちつてとなにぬねのはひふへほあいうえおかきくけこさしすせそたちつてとなにぬねのはひふへほ</t>
     <phoneticPr fontId="0"/>
   </si>
 </sst>
@@ -1351,7 +1324,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1367,6 +1340,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1376,7 +1356,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1447,66 +1427,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1515,16 +1464,61 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1532,23 +1526,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1565,6 +1557,2190 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>616326</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3235763</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>997323</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12102355" y="1075765"/>
+          <a:ext cx="2619437" cy="896470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2610973</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>44822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4314264</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1109378</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3597091" y="1019734"/>
+          <a:ext cx="1703291" cy="1064556"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>98882</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6935155</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>930088</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085000" y="5905500"/>
+          <a:ext cx="6836273" cy="773206"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1304926</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5010151" y="1276350"/>
+          <a:ext cx="1143000" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>154526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>201345</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>276397</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6553199" y="1345151"/>
+          <a:ext cx="4573321" cy="598121"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>89646</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>262026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3525369</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1415306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13626352" y="4811614"/>
+          <a:ext cx="3435723" cy="1153280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257734</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>121553</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4370293</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1502029</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2364440" y="4671141"/>
+          <a:ext cx="4112559" cy="1380476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>119155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3130607</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>613675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17335500" y="1318184"/>
+          <a:ext cx="3063372" cy="1447020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>75654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3459902</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>651615</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13760824" y="1274683"/>
+          <a:ext cx="3235784" cy="1528461"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4619625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>721494</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18002250" y="1209675"/>
+          <a:ext cx="4572000" cy="683394"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>64276</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>35700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4676776</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>725147</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18018901" y="1674000"/>
+          <a:ext cx="4612500" cy="689447"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>72016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4648201</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>759681</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18002250" y="2748541"/>
+          <a:ext cx="4600576" cy="687665"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>5381625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2175769</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9867900" y="742950"/>
+          <a:ext cx="5314950" cy="2147194"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>840923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>90009</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11551104" y="4664530"/>
+          <a:ext cx="5498646" cy="895550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>92850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>626251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>627258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11580000" y="3036076"/>
+          <a:ext cx="5450700" cy="886832"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>71400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>33300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5238750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>874031</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11558550" y="2957475"/>
+          <a:ext cx="5167350" cy="840731"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>378131</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>53414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4462031</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1451523</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6274106" y="748739"/>
+          <a:ext cx="4083900" cy="1398109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>209475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5162625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1117559</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="904800"/>
+          <a:ext cx="5162625" cy="908084"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>148879</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>35220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4866555</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1942914</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2257986" y="1232649"/>
+          <a:ext cx="4717676" cy="1907694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>137995</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>595835</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5246785</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1129393</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11350281" y="1793264"/>
+          <a:ext cx="5108790" cy="533558"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>67078</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>585398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11279364" y="3219933"/>
+          <a:ext cx="5430208" cy="563144"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>96214</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>32180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>300005</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>612322</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11308500" y="3951037"/>
+          <a:ext cx="5633041" cy="580142"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295841</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>112368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>8642</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>551174</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="27727841" y="3310047"/>
+          <a:ext cx="6108158" cy="438806"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>224925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>428053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>6333083</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>866859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="27656925" y="1625482"/>
+          <a:ext cx="6108158" cy="438806"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>349311</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>199456</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>62112</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>638262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="27781311" y="4118313"/>
+          <a:ext cx="6108158" cy="438806"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>273593</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>69074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>6381751</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>513718</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="27705593" y="4709110"/>
+          <a:ext cx="6108158" cy="444644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>107426</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>34586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1461595</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>598713</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27539426" y="6116979"/>
+          <a:ext cx="7749526" cy="564127"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>134962</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>87737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>830037</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>615996</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27566962" y="5448951"/>
+          <a:ext cx="7090432" cy="528259"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3822964</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1609020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5402036" y="1714500"/>
+          <a:ext cx="3523607" cy="1568199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>231643</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>204429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3755250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>17306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334322" y="3551786"/>
+          <a:ext cx="3523607" cy="1568199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>245571</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>82285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3769178</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1650484</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5348250" y="5184964"/>
+          <a:ext cx="3523607" cy="1568199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1833,7 +4009,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1845,10 +4021,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -1875,13 +4051,13 @@
       <c r="B5" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
@@ -2088,10 +4264,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2105,8 +4281,9 @@
     <col min="7" max="7" width="15.25" customWidth="1"/>
     <col min="8" max="8" width="15.375" customWidth="1"/>
     <col min="10" max="10" width="72" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="75.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
     <col min="14" max="14" width="15.125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="73.375" customWidth="1"/>
     <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
@@ -2115,187 +4292,139 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="30"/>
+      <c r="J2" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" ht="178.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="30"/>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="J5" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+    </row>
+    <row r="6" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="J6" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A2" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="31"/>
-      <c r="J2" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A3" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="31"/>
-      <c r="J3" s="35"/>
-      <c r="L3" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A4" s="24" t="s">
+      <c r="L6" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="J7" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="J8" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="J9" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="J4" s="36"/>
-      <c r="L4" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A5" s="24" t="s">
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="J10" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="J5" s="36"/>
-      <c r="L5" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A6" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="J6" s="36"/>
-      <c r="L6" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A7" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="J7" s="36"/>
-      <c r="L7" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A8" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="J8" s="36"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A9" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="J9" s="36"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A10" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="J10" s="36"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A11" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="J11" s="36"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2303,96 +4432,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G11"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="56.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68.375" customWidth="1"/>
+    <col min="3" max="3" width="64.375" customWidth="1"/>
+    <col min="5" max="5" width="71.75" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="37"/>
-      <c r="C3" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="8"/>
-      <c r="C4" s="24"/>
-      <c r="E4" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="G4" s="24">
+    <row r="2" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+    </row>
+    <row r="3" spans="1:7" ht="117.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="14"/>
+      <c r="C3" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="5"/>
+      <c r="C4" s="14"/>
+      <c r="E4" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" s="10">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
+    <row r="5" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="A8" s="5"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="A9" s="5"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="5"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="A11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2400,6 +4529,7 @@
   </mergeCells>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2407,35 +4537,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.875" customWidth="1"/>
-    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.125" customWidth="1"/>
+    <col min="4" max="4" width="45.375" customWidth="1"/>
+    <col min="5" max="5" width="71.25" customWidth="1"/>
     <col min="6" max="6" width="23.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="44.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.375" customWidth="1"/>
     <col min="10" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="83.875" customWidth="1"/>
     <col min="14" max="14" width="21.375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="13" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="D2" s="28" t="s">
-        <v>155</v>
+    <row r="2" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="D2" s="29" t="s">
+        <v>145</v>
       </c>
       <c r="E2" s="32"/>
       <c r="F2" s="32"/>
@@ -2443,162 +4573,166 @@
       <c r="H2" s="32"/>
       <c r="I2" s="32"/>
       <c r="J2" s="32"/>
-      <c r="K2" s="29"/>
+      <c r="K2" s="30"/>
       <c r="M2" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="29"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A3" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="21"/>
+    </row>
+    <row r="3" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="157.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="10"/>
+      <c r="B4" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="M4" s="14"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+    </row>
+    <row r="5" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D5" s="20"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+    </row>
+    <row r="6" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D6" s="20"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="3"/>
-      <c r="G4" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="E5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="E6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="G7" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+    </row>
+    <row r="8" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M8" s="14"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M9" s="14"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:K2"/>
-    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="M2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2606,47 +4740,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="32.375" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="1" max="1" width="39.25" customWidth="1"/>
+    <col min="2" max="2" width="27.75" customWidth="1"/>
     <col min="3" max="3" width="52.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="13" t="s">
+    <row r="2" spans="1:3" s="20" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+    </row>
+    <row r="3" spans="1:3" s="20" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="20" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="24"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="14" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+    <row r="5" spans="1:3" s="20" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="10"/>
+      <c r="C5" s="14"/>
+    </row>
+    <row r="6" spans="1:3" s="20" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="10"/>
+      <c r="C6" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2654,6 +4790,7 @@
   </mergeCells>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2662,13 +4799,13 @@
   <dimension ref="A2:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
     <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
@@ -2680,152 +4817,137 @@
     <col min="13" max="13" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="E2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="30"/>
+    </row>
+    <row r="3" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="E2" s="30" t="s">
+    </row>
+    <row r="4" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="E4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="31"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="10" t="s">
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+    </row>
+    <row r="6" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="E6" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+    </row>
+    <row r="7" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="E7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="E8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+    </row>
+    <row r="10" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="E10" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="E4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="E6" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="E7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="E8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="E10" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="1"/>
       <c r="I10"/>
       <c r="K10" s="1"/>
       <c r="L10"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="E11" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="10" t="s">
+    <row r="11" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="E11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>44</v>
+      <c r="F11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11"/>
       <c r="K11" s="1"/>
       <c r="L11"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="E12" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+    <row r="12" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="E12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="1"/>
       <c r="I12"/>
       <c r="K12" s="1"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-    </row>
+    <row r="13" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+    </row>
+    <row r="15" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+    </row>
+    <row r="16" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="17" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="18" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="20" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E6:G6"/>
@@ -2840,10 +4962,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L18"/>
+  <dimension ref="A2:L22"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2857,169 +4979,196 @@
     <col min="8" max="8" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="17"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="9"/>
+      <c r="C4" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="15"/>
-      <c r="C4" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="14">
+        <v>20</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="5">
-        <v>20</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="15"/>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="15"/>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="15"/>
-      <c r="C7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="15"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="15"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="15"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="15"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="15"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="15"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-    </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="277.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="15"/>
-    </row>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18"/>
+      <c r="C18"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="20" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="1:11" ht="277.5" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:F2"/>
@@ -3035,7 +5184,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F2" sqref="F2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3055,69 +5204,69 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="18" t="s">
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="18" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="18" t="s">
+      <c r="C5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="3"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="18"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -3131,85 +5280,85 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="28" t="s">
-        <v>60</v>
+      <c r="B8" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="C8" s="32"/>
-      <c r="D8" s="29"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="3"/>
+      <c r="B9" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="15"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="3"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="15"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="18" t="s">
+      <c r="B11" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="C11" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="15"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="3"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="15"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="3"/>
+      <c r="B13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="15"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="3"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="15"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -3247,7 +5396,7 @@
   <dimension ref="A2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3257,37 +5406,37 @@
     <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="12" t="s">
+    <row r="2" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+    </row>
+    <row r="3" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3301,148 +5450,173 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J12"/>
+  <dimension ref="A2:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65" customWidth="1"/>
-    <col min="4" max="4" width="142.125" customWidth="1"/>
-    <col min="5" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="54.875" customWidth="1"/>
+    <col min="2" max="2" width="91.375" customWidth="1"/>
+    <col min="4" max="4" width="74.375" customWidth="1"/>
+    <col min="5" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5" customWidth="1"/>
+    <col min="10" max="10" width="79" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="26" t="s">
+      <c r="B5" s="14"/>
+      <c r="D5" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="14"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="30"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="I2" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="D4" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="D5" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="D12" s="16"/>
+    </row>
+    <row r="15" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="10"/>
+      <c r="B15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="10"/>
+      <c r="B16" s="14"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="10"/>
+      <c r="B17" s="14"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="10"/>
+      <c r="B18" s="14"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="10"/>
+      <c r="B19" s="14"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="10"/>
+      <c r="B20" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D8"/>
+  <dimension ref="A2:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -3455,55 +5629,54 @@
     <col min="4" max="4" width="50.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="26"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="3"/>
-      <c r="C3" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
+    <row r="2" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="31"/>
+    </row>
+    <row r="3" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="14"/>
+      <c r="C3" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3511,8 +5684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3532,131 +5705,131 @@
     <col min="17" max="18" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="F2" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="N2" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="F2" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="N2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="22" t="s">
+    </row>
+    <row r="3" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="F4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="F7" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+    </row>
+    <row r="8" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" s="22" t="s">
+      <c r="B8" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="F4" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-    </row>
-    <row r="5" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="F6" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="F7" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="22" t="s">
+      <c r="D8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="H8" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="I8" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="129" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="14"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
   </mergeCells>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3664,8 +5837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K6"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3676,112 +5849,112 @@
     <col min="4" max="5" width="25.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="69.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="52" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="62" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="H2" s="28" t="s">
-        <v>122</v>
+    <row r="2" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="H2" s="29" t="s">
+        <v>117</v>
       </c>
       <c r="I2" s="32"/>
       <c r="J2" s="32"/>
-      <c r="K2" s="29"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="13" t="s">
+      <c r="K2" s="30"/>
+    </row>
+    <row r="3" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="H4" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="H5" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="I5" s="14"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="H6" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="H4" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="H5" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="H6" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3790,5 +5963,6 @@
   </mergeCells>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/KokoroUpTime/Datas/default.xlsx
+++ b/KokoroUpTime/Datas/default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="まとめ" sheetId="1" r:id="rId1"/>
@@ -1532,7 +1532,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1551,9 +1550,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1593,7 +1589,26 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1604,26 +1619,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1632,8 +1631,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1926,7 +1928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9:B20"/>
     </sheetView>
   </sheetViews>
@@ -1939,10 +1941,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -1969,169 +1971,169 @@
       <c r="B5" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="32" t="str">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="24" t="str">
         <f>IF(AND(B9&lt;&gt;0, C9 &lt;&gt;""), C9/B9, "")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="32" t="str">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="24" t="str">
         <f t="shared" ref="E10:E20" si="0">IF(AND(B10&lt;&gt;0, C10 &lt;&gt;""), C10/B10, "")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="32" t="str">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="32" t="str">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="32" t="str">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="32" t="str">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="32" t="str">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="32" t="str">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="32" t="str">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="32" t="str">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="32" t="str">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="32" t="str">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2185,13 +2187,13 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="17.375" customWidth="1"/>
+    <col min="2" max="8" width="21.25" customWidth="1"/>
     <col min="10" max="10" width="75.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
@@ -2208,120 +2210,175 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="28"/>
-      <c r="J2" s="26" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="33"/>
+      <c r="J2" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="28"/>
-      <c r="J3" s="9" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="33"/>
+      <c r="J3" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="J4" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="J5" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="J6" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="J7" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="27" t="s">
         <v>109</v>
       </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="27" t="s">
         <v>110</v>
       </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="27" t="s">
         <v>111</v>
       </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="15" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
     </row>
     <row r="16" spans="1:17" ht="130.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2346,7 +2403,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="71.75" customWidth="1"/>
+    <col min="1" max="1" width="78.375" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="71.75" customWidth="1"/>
@@ -2355,77 +2412,77 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="95.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="12"/>
+      <c r="A3" s="10"/>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="20"/>
-      <c r="C4" s="20"/>
+      <c r="A4" s="18"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:3" ht="156" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="24"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="22"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="20"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="18"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="12"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:3" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="12"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:3" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="12"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="4"/>
+      <c r="A14" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2440,14 +2497,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R35"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="89.75" customWidth="1"/>
-    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="102" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -2463,138 +2520,138 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="R2" s="18"/>
+      <c r="B2" s="31"/>
+      <c r="R2" s="16"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="23" t="s">
         <v>175</v>
       </c>
       <c r="E3" s="1"/>
       <c r="G3"/>
     </row>
     <row r="4" spans="1:18" ht="176.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="24"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="28"/>
       <c r="E4" s="1"/>
       <c r="G4"/>
     </row>
     <row r="5" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="16"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="21" t="s">
         <v>176</v>
       </c>
       <c r="E7" s="1"/>
       <c r="G7"/>
     </row>
     <row r="8" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="24"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="28"/>
       <c r="F8"/>
       <c r="G8"/>
     </row>
     <row r="9" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="17"/>
+      <c r="A9" s="15"/>
       <c r="F9"/>
       <c r="G9"/>
     </row>
     <row r="10" spans="1:18" ht="74.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="17"/>
+      <c r="A10" s="15"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10"/>
       <c r="G10"/>
     </row>
     <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="20"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="15"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="28"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="33"/>
       <c r="G12"/>
     </row>
     <row r="13" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:18" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2608,46 +2665,71 @@
       <c r="G19"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="17" t="s">
         <v>130</v>
       </c>
       <c r="G20"/>
     </row>
     <row r="21" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
       <c r="F21"/>
       <c r="G21"/>
     </row>
     <row r="22" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
       <c r="F22"/>
       <c r="G22"/>
     </row>
     <row r="23" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
       <c r="F23"/>
       <c r="G23"/>
     </row>
     <row r="24" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+    </row>
     <row r="26" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
       <c r="F26"/>
       <c r="G26"/>
     </row>
@@ -2709,38 +2791,38 @@
     <col min="3" max="3" width="52.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:3" s="15" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-    </row>
-    <row r="3" spans="1:3" s="17" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="10" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+    </row>
+    <row r="3" spans="1:3" s="15" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="17" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="29"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" spans="1:3" s="17" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="29"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="12"/>
-    </row>
-    <row r="6" spans="1:3" s="17" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="29"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="12"/>
+    <row r="4" spans="1:3" s="15" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="30"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" s="15" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="30"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:3" s="15" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="30"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2756,8 +2838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2776,81 +2858,99 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="E2" s="27" t="s">
+      <c r="B2" s="33"/>
+      <c r="E2" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="28"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E4" s="13" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="E4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+    </row>
     <row r="6" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E6" s="26" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="E6" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E7" s="13" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="E7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E8" s="13" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="E8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+    </row>
     <row r="10" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E10" s="26" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="E10" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
       <c r="H10" s="1"/>
       <c r="I10"/>
       <c r="K10" s="1"/>
       <c r="L10"/>
     </row>
     <row r="11" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E11" s="13" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="E11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="11" t="s">
         <v>39</v>
       </c>
       <c r="H11" s="1"/>
@@ -2859,24 +2959,50 @@
       <c r="L11"/>
     </row>
     <row r="12" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E12" s="13" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="E12" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
       <c r="H12" s="1"/>
       <c r="I12"/>
       <c r="K12" s="1"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="17" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="18" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="20" ht="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+    </row>
+    <row r="15" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+    </row>
+    <row r="16" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+    </row>
+    <row r="17" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+    </row>
+    <row r="18" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+    </row>
+    <row r="19" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+    </row>
+    <row r="20" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E6:G6"/>
@@ -2894,7 +3020,7 @@
   <dimension ref="A2:L22"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C10" sqref="C10:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2903,197 +3029,207 @@
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
     <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>145</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="29"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="12" t="s">
+      <c r="A4" s="15"/>
+      <c r="C4" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <v>20</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="12" t="s">
+      <c r="A5" s="15"/>
+      <c r="C5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="12" t="s">
+      <c r="A6" s="15"/>
+      <c r="C6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="15"/>
+      <c r="C7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="A8" s="15"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="34" t="s">
+      <c r="A9" s="15"/>
+      <c r="C9" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="22"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="A10" s="15"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="20"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="22"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="A11" s="15"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="20"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="22"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="A12" s="15"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="20"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="22"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="A13" s="15"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="20"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="A14" s="15"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="A15" s="15"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="A16" s="15"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17"/>
+      <c r="A17" s="15"/>
       <c r="C17"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18"/>
+      <c r="A18" s="15"/>
       <c r="C18"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="20" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="21" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3115,7 +3251,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G5"/>
+      <selection activeCell="G2" sqref="G2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3137,67 +3273,67 @@
     </row>
     <row r="2" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="15"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -3213,83 +3349,83 @@
     </row>
     <row r="8" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="13"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -3338,36 +3474,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3384,7 +3520,7 @@
   <dimension ref="A2:J15"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3395,112 +3531,126 @@
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="55.5" customWidth="1"/>
-    <col min="10" max="10" width="79" customWidth="1"/>
+    <col min="10" max="10" width="98.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="36" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="I2" s="27" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="I2" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="28"/>
+      <c r="J2" s="33"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="12"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="10"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="D5" s="14" t="s">
+      <c r="B5" s="10"/>
+      <c r="D5" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="12"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="10"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="10"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="10"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="10"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="10"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="10"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
@@ -3521,7 +3671,7 @@
   <dimension ref="A2:D11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3532,31 +3682,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="29"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="29"/>
-      <c r="C3" s="12" t="s">
+      <c r="A3" s="30"/>
+      <c r="C3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C2:D2"/>
@@ -3572,16 +3754,16 @@
   <dimension ref="A2:N26"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="29.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.375" customWidth="1"/>
+    <col min="2" max="2" width="45.25" customWidth="1"/>
     <col min="3" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.125" customWidth="1"/>
+    <col min="7" max="7" width="45.125" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.625" bestFit="1" customWidth="1"/>
@@ -3592,141 +3774,141 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="F2" s="26" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="F2" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="18"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="16"/>
       <c r="N2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="135.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="F4" s="26" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="F4" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="24"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="23" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="21" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="3"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="28"/>
-      <c r="F8" s="29" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="33"/>
+      <c r="F8" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="88.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A8:D8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3755,106 +3937,106 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
       <c r="H2" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="28"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="H4" s="24" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="H4" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="H5" s="24" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="H5" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="H6" s="24" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="H6" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/KokoroUpTime/Datas/default.xlsx
+++ b/KokoroUpTime/Datas/default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="まとめ" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="180">
   <si>
     <t>基本情報</t>
   </si>
@@ -327,13 +327,6 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>バメン</t>
-    </rPh>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>チャレンジタイム！　キミちゃんのきもちを考えてみよう</t>
-    <rPh sb="20" eb="21">
-      <t>カンガ</t>
     </rPh>
     <phoneticPr fontId="0"/>
   </si>
@@ -1381,6 +1374,28 @@
     </rPh>
     <rPh sb="25" eb="26">
       <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>グループアクティビティ</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>選択した場面</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バメン</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>チャレンジタイム！
+キミちゃんのきもちを考えてみよう</t>
+    <rPh sb="20" eb="21">
+      <t>カンガ</t>
     </rPh>
     <phoneticPr fontId="0"/>
   </si>
@@ -1528,7 +1543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -1603,6 +1618,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1941,10 +1959,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -1971,13 +1989,13 @@
       <c r="B5" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="22"/>
@@ -2206,55 +2224,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="33"/>
-      <c r="J2" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
+      <c r="A2" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="34"/>
+      <c r="J2" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="33"/>
+        <v>81</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="34"/>
       <c r="J3" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K3" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -2264,14 +2282,14 @@
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="J4" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -2281,14 +2299,14 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="J5" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -2298,14 +2316,14 @@
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="J6" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -2315,14 +2333,14 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="J7" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="18"/>
@@ -2334,7 +2352,7 @@
     </row>
     <row r="9" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -2346,7 +2364,7 @@
     </row>
     <row r="10" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -2358,7 +2376,7 @@
     </row>
     <row r="11" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -2369,16 +2387,16 @@
       <c r="H11" s="15"/>
     </row>
     <row r="15" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
+      <c r="A15" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
     </row>
     <row r="16" spans="1:17" ht="130.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2413,7 +2431,7 @@
   <sheetData>
     <row r="2" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="95.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2425,7 +2443,7 @@
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A5" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" s="18"/>
     </row>
@@ -2438,29 +2456,29 @@
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
+      <c r="A8" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" s="8">
         <v>90</v>
@@ -2497,7 +2515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -2520,18 +2538,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="31"/>
+      <c r="A2" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="32"/>
       <c r="R2" s="16"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E3" s="1"/>
       <c r="G3"/>
@@ -2544,18 +2562,18 @@
     </row>
     <row r="5" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="31"/>
+      <c r="A6" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="32"/>
       <c r="C6" s="16"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E7" s="1"/>
       <c r="G7"/>
@@ -2583,52 +2601,52 @@
       <c r="B11" s="15"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A12" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="33"/>
+      <c r="A12" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="34"/>
       <c r="G12"/>
     </row>
     <row r="13" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2637,7 +2655,7 @@
     </row>
     <row r="16" spans="1:18" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -2646,7 +2664,7 @@
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -2655,30 +2673,30 @@
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="42"/>
+      <c r="A19" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="43"/>
       <c r="G19"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B20" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="D20" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="E20" s="17" t="s">
         <v>129</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>130</v>
       </c>
       <c r="G20"/>
     </row>
@@ -2792,35 +2810,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" s="15" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="A2" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:3" s="15" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="15" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="30"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="8"/>
       <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" s="15" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="30"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="8"/>
       <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" s="15" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="30"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="8"/>
       <c r="C6" s="10"/>
     </row>
@@ -2858,14 +2876,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="E2" s="32" t="s">
+      <c r="B2" s="34"/>
+      <c r="E2" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="33"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
@@ -2896,11 +2914,11 @@
     <row r="6" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15"/>
@@ -2931,11 +2949,11 @@
     <row r="10" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
       <c r="H10" s="1"/>
       <c r="I10"/>
       <c r="K10" s="1"/>
@@ -3035,23 +3053,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="30" t="s">
-        <v>145</v>
+      <c r="A2" s="31" t="s">
+        <v>144</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="30"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="1"/>
       <c r="C3" s="10" t="s">
         <v>25</v>
@@ -3073,7 +3091,7 @@
     <row r="4" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="15"/>
       <c r="C4" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>26</v>
@@ -3143,7 +3161,7 @@
     <row r="9" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15"/>
       <c r="C9" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -3152,9 +3170,9 @@
     </row>
     <row r="10" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
       <c r="F10" s="20"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -3163,9 +3181,9 @@
     </row>
     <row r="11" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
       <c r="F11" s="20"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -3174,9 +3192,9 @@
     </row>
     <row r="12" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="15"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
       <c r="F12" s="20"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -3273,11 +3291,11 @@
     </row>
     <row r="2" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="33"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="1"/>
       <c r="F2" s="11" t="s">
         <v>47</v>
@@ -3349,11 +3367,11 @@
     </row>
     <row r="8" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="33"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -3460,10 +3478,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C5"/>
+  <dimension ref="A2:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3471,16 +3489,20 @@
     <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-    </row>
-    <row r="3" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>179</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="E2" s="29" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>57</v>
       </c>
@@ -3490,24 +3512,30 @@
       <c r="C3" s="11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E3" s="29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E4" s="30"/>
+    </row>
+    <row r="5" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
+      <c r="E5" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3535,28 +3563,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="37"/>
+      <c r="A2" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="38"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="I2" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="33"/>
+      <c r="D2" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="I2" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>57</v>
@@ -3568,24 +3596,24 @@
         <v>39</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="8"/>
@@ -3595,11 +3623,11 @@
     </row>
     <row r="5" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="10"/>
       <c r="D5" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -3609,7 +3637,7 @@
     </row>
     <row r="6" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="10"/>
       <c r="I6" s="15"/>
@@ -3617,7 +3645,7 @@
     </row>
     <row r="7" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="10"/>
       <c r="I7" s="15"/>
@@ -3625,7 +3653,7 @@
     </row>
     <row r="8" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="10"/>
       <c r="I8" s="15"/>
@@ -3633,7 +3661,7 @@
     </row>
     <row r="9" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="10"/>
       <c r="I9" s="15"/>
@@ -3641,15 +3669,15 @@
     </row>
     <row r="10" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="10"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
       <c r="D12" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3682,21 +3710,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="30"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="30"/>
+      <c r="A3" s="31"/>
       <c r="C3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4">
@@ -3774,19 +3802,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="F2" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="31"/>
+      <c r="A2" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="F2" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="32"/>
       <c r="H2" s="16"/>
       <c r="N2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
@@ -3794,7 +3822,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>59</v>
@@ -3803,84 +3831,84 @@
         <v>58</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="135.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
-      <c r="F4" s="31" t="s">
-        <v>83</v>
+      <c r="F4" s="32" t="s">
+        <v>82</v>
       </c>
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="F5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="F6" s="31"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="34"/>
+      <c r="F8" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="33"/>
-      <c r="F8" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
     </row>
     <row r="9" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>39</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G9" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>39</v>
@@ -3937,66 +3965,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="H2" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="H2" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="33"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="H4" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="8"/>
@@ -4004,17 +4032,17 @@
     </row>
     <row r="5" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="H5" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="8"/>
@@ -4022,17 +4050,17 @@
     </row>
     <row r="6" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="H6" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="8"/>

--- a/KokoroUpTime/Datas/default.xlsx
+++ b/KokoroUpTime/Datas/default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130"/>
   </bookViews>
   <sheets>
     <sheet name="まとめ" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="180">
   <si>
-    <t>基本情報</t>
-  </si>
-  <si>
     <t>プレイ名</t>
   </si>
   <si>
@@ -1397,6 +1394,10 @@
     <rPh sb="20" eb="21">
       <t>カンガ</t>
     </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>基本情報</t>
     <phoneticPr fontId="0"/>
   </si>
 </sst>
@@ -1444,7 +1445,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1530,20 +1531,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -1613,7 +1605,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1638,7 +1633,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1946,8 +1941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1959,62 +1954,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="30"/>
+      <c r="A1" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="22"/>
       <c r="B8" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="D8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="E8" s="22" t="s">
         <v>8</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -2026,7 +2021,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -2038,7 +2033,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -2050,7 +2045,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -2062,7 +2057,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -2074,7 +2069,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
@@ -2086,7 +2081,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -2098,7 +2093,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -2110,7 +2105,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -2122,7 +2117,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -2134,7 +2129,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -2146,7 +2141,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -2205,7 +2200,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2224,55 +2219,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="34"/>
-      <c r="J2" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
+      <c r="A2" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="35"/>
+      <c r="J2" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="34"/>
+        <v>80</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="35"/>
       <c r="J3" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="27" t="s">
-        <v>164</v>
+      <c r="A4" s="30" t="s">
+        <v>163</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -2282,14 +2277,14 @@
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="J4" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="27" t="s">
-        <v>165</v>
+      <c r="A5" s="30" t="s">
+        <v>164</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -2299,14 +2294,14 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="J5" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="27" t="s">
-        <v>166</v>
+      <c r="A6" s="30" t="s">
+        <v>165</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -2316,14 +2311,14 @@
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="J6" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="27" t="s">
-        <v>167</v>
+      <c r="A7" s="30" t="s">
+        <v>166</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -2333,14 +2328,14 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="J7" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="27" t="s">
-        <v>107</v>
+      <c r="A8" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="18"/>
@@ -2351,8 +2346,8 @@
       <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="27" t="s">
-        <v>108</v>
+      <c r="A9" s="30" t="s">
+        <v>107</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -2363,8 +2358,8 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="27" t="s">
-        <v>109</v>
+      <c r="A10" s="30" t="s">
+        <v>108</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -2375,8 +2370,8 @@
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="27" t="s">
-        <v>110</v>
+      <c r="A11" s="30" t="s">
+        <v>109</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -2387,16 +2382,16 @@
       <c r="H11" s="15"/>
     </row>
     <row r="15" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
+      <c r="A15" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
     </row>
     <row r="16" spans="1:17" ht="130.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2431,7 +2426,7 @@
   <sheetData>
     <row r="2" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="95.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2443,7 +2438,7 @@
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A5" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5" s="18"/>
     </row>
@@ -2456,29 +2451,29 @@
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
+      <c r="A8" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" s="8">
         <v>90</v>
@@ -2516,7 +2511,7 @@
   <dimension ref="A2:R35"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2538,59 +2533,59 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="32"/>
+      <c r="A2" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="33"/>
       <c r="R2" s="16"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E3" s="1"/>
       <c r="G3"/>
     </row>
     <row r="4" spans="1:18" ht="176.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="22"/>
-      <c r="B4" s="28"/>
+      <c r="B4" s="27"/>
       <c r="E4" s="1"/>
       <c r="G4"/>
     </row>
     <row r="5" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="32"/>
+      <c r="A6" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="33"/>
       <c r="C6" s="16"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E7" s="1"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="22"/>
-      <c r="B8" s="28"/>
+    <row r="8" spans="1:18" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="29"/>
+      <c r="B8" s="27"/>
       <c r="F8"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="15"/>
+    <row r="9" spans="1:18" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="18"/>
       <c r="F9"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:18" ht="74.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="15"/>
+    <row r="10" spans="1:18" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="18"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10"/>
@@ -2601,52 +2596,52 @@
       <c r="B11" s="15"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A12" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="34"/>
+      <c r="A12" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="35"/>
       <c r="G12"/>
     </row>
     <row r="13" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2655,7 +2650,7 @@
     </row>
     <row r="16" spans="1:18" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -2664,7 +2659,7 @@
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -2673,81 +2668,82 @@
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43"/>
+      <c r="A19" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44"/>
       <c r="G19"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B20" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="D20" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="E20" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>129</v>
-      </c>
       <c r="G20"/>
     </row>
     <row r="21" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="1"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
       <c r="F21"/>
       <c r="G21"/>
     </row>
     <row r="22" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="1"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
       <c r="F22"/>
       <c r="G22"/>
     </row>
     <row r="23" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="1"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
       <c r="F23"/>
       <c r="G23"/>
     </row>
     <row r="24" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="1"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
       <c r="F24"/>
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="1"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
       <c r="F26"/>
       <c r="G26"/>
     </row>
@@ -2810,35 +2806,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" s="15" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
+      <c r="A2" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:3" s="15" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="15" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="31"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="8"/>
       <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" s="15" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="31"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="8"/>
       <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" s="15" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="8"/>
       <c r="C6" s="10"/>
     </row>
@@ -2856,8 +2852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2865,7 +2861,7 @@
     <col min="1" max="1" width="19.875" customWidth="1"/>
     <col min="2" max="2" width="23.125" customWidth="1"/>
     <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
@@ -2876,34 +2872,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="E2" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="34"/>
+      <c r="A2" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="E2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="E4" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="11"/>
     </row>
@@ -2914,30 +2910,30 @@
     <row r="6" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="E6" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="E6" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="E7" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="E8" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -2949,11 +2945,11 @@
     <row r="10" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
-      <c r="E10" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="E10" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
       <c r="H10" s="1"/>
       <c r="I10"/>
       <c r="K10" s="1"/>
@@ -2963,13 +2959,13 @@
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="E11" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11"/>
@@ -2980,7 +2976,7 @@
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="E12" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -3053,35 +3049,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="31" t="s">
-        <v>144</v>
+      <c r="A2" s="32" t="s">
+        <v>143</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="C2" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="31"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="1"/>
       <c r="C3" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -3091,16 +3087,16 @@
     <row r="4" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="15"/>
       <c r="C4" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="10">
         <v>20</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -3109,10 +3105,10 @@
     <row r="5" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="15"/>
       <c r="C5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -3124,10 +3120,10 @@
     <row r="6" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="15"/>
       <c r="C6" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -3139,10 +3135,10 @@
     <row r="7" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15"/>
       <c r="C7" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -3161,7 +3157,7 @@
     <row r="9" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15"/>
       <c r="C9" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -3170,9 +3166,9 @@
     </row>
     <row r="10" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="20"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -3181,9 +3177,9 @@
     </row>
     <row r="11" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="20"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -3192,9 +3188,9 @@
     </row>
     <row r="12" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="15"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="20"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -3291,29 +3287,29 @@
     </row>
     <row r="2" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="1"/>
       <c r="F2" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="1"/>
       <c r="F3" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" s="23"/>
     </row>
@@ -3321,27 +3317,27 @@
       <c r="A4" s="1"/>
       <c r="B4" s="13"/>
       <c r="C4" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="1"/>
       <c r="F4" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="1"/>
       <c r="F5" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" s="23"/>
     </row>
@@ -3349,7 +3345,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="13"/>
       <c r="C6" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="1"/>
@@ -3367,11 +3363,11 @@
     </row>
     <row r="8" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="34"/>
+      <c r="B8" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -3379,10 +3375,10 @@
     <row r="9" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="1"/>
@@ -3393,7 +3389,7 @@
       <c r="A10" s="1"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="1"/>
@@ -3403,10 +3399,10 @@
     <row r="11" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="1"/>
@@ -3417,7 +3413,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="1"/>
@@ -3427,10 +3423,10 @@
     <row r="13" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="1"/>
@@ -3441,7 +3437,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="1"/>
@@ -3480,8 +3476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3493,44 +3489,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="E2" s="29" t="s">
-        <v>177</v>
+      <c r="A2" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="E2" s="28" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>178</v>
+      <c r="E3" s="28" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
-      <c r="E4" s="30"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
-      <c r="E5" s="30"/>
+      <c r="E5" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3563,57 +3559,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="38"/>
+      <c r="A2" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="39"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="I2" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2" s="34"/>
+      <c r="D2" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="I2" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="8"/>
@@ -3623,11 +3619,11 @@
     </row>
     <row r="5" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="10"/>
       <c r="D5" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -3637,7 +3633,7 @@
     </row>
     <row r="6" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="10"/>
       <c r="I6" s="15"/>
@@ -3645,7 +3641,7 @@
     </row>
     <row r="7" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="10"/>
       <c r="I7" s="15"/>
@@ -3653,7 +3649,7 @@
     </row>
     <row r="8" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="10"/>
       <c r="I8" s="15"/>
@@ -3661,7 +3657,7 @@
     </row>
     <row r="9" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="10"/>
       <c r="I9" s="15"/>
@@ -3669,15 +3665,15 @@
     </row>
     <row r="10" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="10"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
       <c r="D12" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3696,61 +3692,61 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D11"/>
+  <dimension ref="A2:D12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.25" customWidth="1"/>
     <col min="4" max="4" width="57.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="31"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="31"/>
+      <c r="A3" s="32"/>
       <c r="C3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
     </row>
     <row r="9" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15"/>
@@ -3767,6 +3763,7 @@
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
     </row>
+    <row r="12" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C2:D2"/>
@@ -3782,7 +3779,7 @@
   <dimension ref="A2:N26"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3802,116 +3799,116 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="F2" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="32"/>
+      <c r="A2" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="F2" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="33"/>
       <c r="H2" s="16"/>
       <c r="N2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="F3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="135.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="135.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="13" t="s">
-        <v>79</v>
-      </c>
       <c r="B4" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
-      <c r="F4" s="32" t="s">
-        <v>82</v>
+      <c r="F4" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="23"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="35"/>
+      <c r="F8" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="34"/>
-      <c r="F8" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="D9" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>89</v>
-      </c>
       <c r="I9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="88.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3965,66 +3962,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="H2" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="H2" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="34"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="35"/>
     </row>
     <row r="3" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="H4" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="8"/>
@@ -4032,17 +4029,17 @@
     </row>
     <row r="5" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="H5" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="8"/>
@@ -4050,17 +4047,17 @@
     </row>
     <row r="6" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="H6" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="8"/>
